--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_26.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1891841.866234259</v>
+        <v>1967371.535899065</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -656,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>304.0470687359145</v>
       </c>
       <c r="F2" t="n">
-        <v>349.9011332566511</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -826,19 +828,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>10.46499054460276</v>
+        <v>4.856694517591443</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -953,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>85.72834075468934</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>150.7761107361271</v>
       </c>
     </row>
     <row r="6">
@@ -1051,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>91.28928585505047</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>207.2899587680354</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1130,25 +1132,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,19 +1186,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>7.456147600970175</v>
       </c>
       <c r="W8" t="n">
-        <v>108.5609025698957</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>177.9498744325403</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,13 +1299,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1354,10 +1356,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>208.279329433658</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1427,7 +1429,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1537,7 +1539,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>101.1426547140133</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -1594,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>174.3062600431768</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1783,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,7 +1818,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1828,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>29.18937547121065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>29.22348129747429</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>26.97444673954876</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2093,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2141,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>93.10124151664596</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2290,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>6.348656829617775</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>100.487936484235</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648052002</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2612,7 +2614,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2652,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2719,16 +2721,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>134.4910295281376</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2764,7 +2766,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>146.278729911946</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2773,13 +2775,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274225</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2968,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U31" t="n">
-        <v>182.1667637639236</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3038,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417085</v>
       </c>
       <c r="G32" t="n">
         <v>411.9645167896915</v>
@@ -3047,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274071</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,16 +3189,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>155.8385935972308</v>
+        <v>139.7568420184984</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274071</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648052002</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U35" t="n">
         <v>251.078595249801</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3436,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>15.498579853563</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>134.7660731567839</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3481,13 +3483,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3509,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722634</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274071</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3679,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>33.3514698018592</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,7 +3714,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>83.92398245200164</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3721,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274225</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3913,10 +3915,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>49.65580737697925</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>238.2336684417121</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3995,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274225</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4183,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>183.1796758467005</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4201,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1534.318342165211</v>
+        <v>1190.010945960184</v>
       </c>
       <c r="C2" t="n">
-        <v>1165.3558252248</v>
+        <v>1190.010945960184</v>
       </c>
       <c r="D2" t="n">
-        <v>807.0901266180492</v>
+        <v>1190.010945960184</v>
       </c>
       <c r="E2" t="n">
-        <v>421.301874019805</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
         <v>53.94298182036445</v>
@@ -4331,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>2311.057514205145</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W2" t="n">
-        <v>2311.057514205145</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X2" t="n">
-        <v>2311.057514205145</v>
+        <v>1190.010945960184</v>
       </c>
       <c r="Y2" t="n">
-        <v>1920.918182229333</v>
+        <v>1190.010945960184</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,16 +4409,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>211.4036268380756</v>
+        <v>104.5052582912013</v>
       </c>
       <c r="C4" t="n">
-        <v>211.4036268380756</v>
+        <v>104.5052582912013</v>
       </c>
       <c r="D4" t="n">
-        <v>211.4036268380756</v>
+        <v>104.5052582912013</v>
       </c>
       <c r="E4" t="n">
-        <v>211.4036268380756</v>
+        <v>104.5052582912013</v>
       </c>
       <c r="F4" t="n">
-        <v>64.51367934016523</v>
+        <v>104.5052582912013</v>
       </c>
       <c r="G4" t="n">
-        <v>64.51367934016523</v>
+        <v>104.5052582912013</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>500.8207968750362</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U4" t="n">
-        <v>500.8207968750362</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V4" t="n">
-        <v>500.8207968750362</v>
+        <v>325.2978374347314</v>
       </c>
       <c r="W4" t="n">
-        <v>211.4036268380756</v>
+        <v>325.2978374347314</v>
       </c>
       <c r="X4" t="n">
-        <v>211.4036268380756</v>
+        <v>325.2978374347314</v>
       </c>
       <c r="Y4" t="n">
-        <v>211.4036268380756</v>
+        <v>104.5052582912013</v>
       </c>
     </row>
     <row r="5">
@@ -4541,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1405.321187657107</v>
+        <v>1763.586886263858</v>
       </c>
       <c r="C5" t="n">
-        <v>1036.358670716696</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D5" t="n">
         <v>1036.358670716696</v>
@@ -4565,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4601,16 +4603,16 @@
         <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2555.52611795812</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W5" t="n">
-        <v>2555.52611795812</v>
+        <v>2289.351746278601</v>
       </c>
       <c r="X5" t="n">
-        <v>2182.06035969704</v>
+        <v>1915.885988017521</v>
       </c>
       <c r="Y5" t="n">
-        <v>1791.921027721229</v>
+        <v>1763.586886263858</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4647,16 +4649,16 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4665,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>268.535689181137</v>
+        <v>296.2710210862865</v>
       </c>
       <c r="C7" t="n">
-        <v>99.5995062532301</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4750,25 +4752,25 @@
         <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>489.3282683246671</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>489.3282683246671</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>489.3282683246671</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V7" t="n">
-        <v>489.3282683246671</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W7" t="n">
-        <v>489.3282683246671</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X7" t="n">
-        <v>489.3282683246671</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y7" t="n">
-        <v>268.535689181137</v>
+        <v>477.9194859165262</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1206.080506218543</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="C8" t="n">
-        <v>837.1179892781316</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="D8" t="n">
-        <v>478.8522906713811</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4820,10 +4822,10 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
@@ -4832,22 +4834,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862886</v>
+        <v>1986.014999249838</v>
       </c>
       <c r="W8" t="n">
-        <v>2356.285436519557</v>
+        <v>1986.014999249838</v>
       </c>
       <c r="X8" t="n">
-        <v>1982.819678258477</v>
+        <v>1986.014999249838</v>
       </c>
       <c r="Y8" t="n">
-        <v>1592.680346282665</v>
+        <v>1595.875667274027</v>
       </c>
     </row>
     <row r="9">
@@ -4878,25 +4880,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.5995062532301</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="C10" t="n">
-        <v>99.5995062532301</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="D10" t="n">
-        <v>99.5995062532301</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E10" t="n">
-        <v>99.5995062532301</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F10" t="n">
-        <v>99.5995062532301</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -5002,10 +5004,10 @@
         <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>500.1394333084171</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>279.346854164887</v>
+        <v>517.7458231623355</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5017,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823787</v>
@@ -5057,34 +5059,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5106,37 +5108,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>410.874530133163</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>1024.771599890052</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1141.200876391121</v>
+        <v>1096.475226584133</v>
       </c>
       <c r="C13" t="n">
-        <v>972.2646934632137</v>
+        <v>927.5390436562259</v>
       </c>
       <c r="D13" t="n">
-        <v>822.1480540508779</v>
+        <v>777.4224042438901</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>629.509310661497</v>
       </c>
       <c r="F13" t="n">
         <v>527.3450129705744</v>
@@ -5194,7 +5196,7 @@
         <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5242,7 +5244,7 @@
         <v>1498.916270557902</v>
       </c>
       <c r="Y13" t="n">
-        <v>1322.84934122136</v>
+        <v>1278.123691414372</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5261,16 +5263,16 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
@@ -5279,7 +5281,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5312,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>462.7283310300503</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>709.4934589365143</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1016.813592216476</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N15" t="n">
-        <v>1346.676219880509</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183168</v>
+        <v>2302.237516093321</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2507.25999687553</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5464,22 +5466,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1187.92115703528</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>898.7925182488382</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V16" t="n">
-        <v>644.1080300429513</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W16" t="n">
-        <v>354.6908600059907</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X16" t="n">
-        <v>126.7013091079734</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954965</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,22 +5500,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514083</v>
@@ -5549,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5601,7 +5603,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
         <v>1558.376451307619</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>872.6898113736385</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>703.7536284457316</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>703.7536284457316</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5695,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1471.669354659368</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="U19" t="n">
-        <v>1275.130855347408</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V19" t="n">
-        <v>1275.130855347408</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W19" t="n">
-        <v>1275.130855347408</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X19" t="n">
-        <v>1275.130855347408</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y19" t="n">
-        <v>1054.338276203878</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
@@ -5750,13 +5752,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5792,10 +5794,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5829,22 +5831,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>233.7852434110089</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>644.6755122555215</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>891.4406401619856</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M21" t="n">
-        <v>1198.760773441947</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N21" t="n">
-        <v>1528.62340110598</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P21" t="n">
         <v>2328.464088060424</v>
@@ -5884,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>804.3537517307267</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
         <v>97.21709146028584</v>
@@ -5938,22 +5940,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609664</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V22" t="n">
-        <v>986.0022165609664</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W22" t="n">
-        <v>986.0022165609664</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>986.0022165609664</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
-        <v>986.0022165609664</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805468</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6054,34 +6056,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>412.6079778147082</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L24" t="n">
-        <v>659.3731057211724</v>
+        <v>732.169830515405</v>
       </c>
       <c r="M24" t="n">
-        <v>966.6932390011341</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N24" t="n">
-        <v>1771.104817265285</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O24" t="n">
-        <v>2050.644882483982</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>564.1830073829216</v>
+        <v>272.5660590645743</v>
       </c>
       <c r="C25" t="n">
-        <v>395.2468244550147</v>
+        <v>103.6298761366674</v>
       </c>
       <c r="D25" t="n">
-        <v>245.130185042679</v>
+        <v>103.6298761366674</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>103.6298761366674</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>103.6298761366674</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028584</v>
@@ -6148,13 +6150,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1397.413304412211</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U25" t="n">
-        <v>1108.284665625769</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V25" t="n">
-        <v>853.6001774198821</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W25" t="n">
-        <v>564.1830073829216</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="X25" t="n">
-        <v>564.1830073829216</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="Y25" t="n">
-        <v>564.1830073829216</v>
+        <v>454.2145238948141</v>
       </c>
     </row>
     <row r="26">
@@ -6221,34 +6223,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514089</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
         <v>4726.561275231264</v>
@@ -6300,22 +6302,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>485.4047026089406</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>732.1698305154048</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M27" t="n">
-        <v>1039.489963795367</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N27" t="n">
-        <v>1843.901542059517</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O27" t="n">
         <v>2123.441607278215</v>
@@ -6358,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>531.3977182706323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>531.3977182706323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>531.3977182706323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>383.4846246882391</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.210845262961</v>
+        <v>1151.239967633105</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765191</v>
+        <v>862.1113288466635</v>
       </c>
       <c r="V28" t="n">
-        <v>531.3977182706323</v>
+        <v>607.4268406407766</v>
       </c>
       <c r="W28" t="n">
-        <v>531.3977182706323</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X28" t="n">
-        <v>531.3977182706323</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y28" t="n">
-        <v>531.3977182706323</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155904</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805485</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822478</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823785</v>
@@ -6467,46 +6469,46 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6537,25 +6539,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>412.6079778147083</v>
+        <v>498.9056400965599</v>
       </c>
       <c r="L30" t="n">
-        <v>659.3731057211725</v>
+        <v>745.6707680030239</v>
       </c>
       <c r="M30" t="n">
-        <v>966.6932390011342</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N30" t="n">
-        <v>1771.104817265285</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O30" t="n">
-        <v>2050.644882483982</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6595,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>377.6878657662453</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6637,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>964.1357418247865</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U31" t="n">
-        <v>780.1289097400152</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V31" t="n">
-        <v>780.1289097400152</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W31" t="n">
-        <v>780.1289097400152</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X31" t="n">
-        <v>780.1289097400152</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y31" t="n">
-        <v>559.336330596485</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.3213845506</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610188</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003438</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405193</v>
       </c>
       <c r="F32" t="n">
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
         <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231261</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141865</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465298</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121728</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851613</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590533</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614722</v>
       </c>
     </row>
     <row r="33">
@@ -6768,28 +6770,28 @@
         <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
         <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K33" t="n">
-        <v>485.4047026089406</v>
+        <v>485.4047026089422</v>
       </c>
       <c r="L33" t="n">
-        <v>732.1698305154048</v>
+        <v>732.1698305154061</v>
       </c>
       <c r="M33" t="n">
-        <v>1039.489963795367</v>
+        <v>1039.489963795368</v>
       </c>
       <c r="N33" t="n">
-        <v>1843.901542059517</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O33" t="n">
         <v>2123.441607278215</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>711.072954880832</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="C34" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="D34" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="E34" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241956</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557903</v>
+        <v>964.1357418247856</v>
       </c>
       <c r="U34" t="n">
-        <v>1341.503549752619</v>
+        <v>822.9672145333731</v>
       </c>
       <c r="V34" t="n">
-        <v>1341.503549752619</v>
+        <v>568.2827263274862</v>
       </c>
       <c r="W34" t="n">
-        <v>1341.503549752619</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="X34" t="n">
-        <v>1113.513998854602</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y34" t="n">
-        <v>892.7214197110717</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="35">
@@ -6932,37 +6934,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823788</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
@@ -7011,22 +7013,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K36" t="n">
-        <v>485.4047026089406</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L36" t="n">
-        <v>732.1698305154048</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M36" t="n">
-        <v>1039.489963795367</v>
+        <v>1514.038914395486</v>
       </c>
       <c r="N36" t="n">
-        <v>1843.901542059517</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O36" t="n">
         <v>2123.441607278215</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>841.790738378246</v>
+        <v>868.4856756861151</v>
       </c>
       <c r="C37" t="n">
-        <v>672.8545554503391</v>
+        <v>699.5494927582082</v>
       </c>
       <c r="D37" t="n">
-        <v>522.7379160380034</v>
+        <v>549.4328533458724</v>
       </c>
       <c r="E37" t="n">
-        <v>374.8248224556103</v>
+        <v>401.5197597634793</v>
       </c>
       <c r="F37" t="n">
-        <v>374.8248224556103</v>
+        <v>401.5197597634793</v>
       </c>
       <c r="G37" t="n">
-        <v>359.1696912903951</v>
+        <v>233.3444380832999</v>
       </c>
       <c r="H37" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V37" t="n">
-        <v>1244.231782352016</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W37" t="n">
-        <v>1244.231782352016</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="X37" t="n">
-        <v>1244.231782352016</v>
+        <v>1270.926719659885</v>
       </c>
       <c r="Y37" t="n">
-        <v>1023.439203208486</v>
+        <v>1050.134140516355</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
@@ -7184,40 +7186,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7250,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K39" t="n">
-        <v>412.6079778147083</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L39" t="n">
-        <v>1026.505047571597</v>
+        <v>1196.088769018224</v>
       </c>
       <c r="M39" t="n">
-        <v>1333.825180851559</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N39" t="n">
-        <v>1663.687808515592</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O39" t="n">
-        <v>1943.227873734289</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P39" t="n">
-        <v>2463.528495470036</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>130.9054447954972</v>
+        <v>377.6878657662453</v>
       </c>
       <c r="C40" t="n">
-        <v>130.9054447954972</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D40" t="n">
-        <v>130.9054447954972</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E40" t="n">
-        <v>130.9054447954972</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F40" t="n">
-        <v>130.9054447954972</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G40" t="n">
-        <v>130.9054447954972</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H40" t="n">
-        <v>130.9054447954972</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.921157035281</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>964.1357418247865</v>
+        <v>1103.149457588814</v>
       </c>
       <c r="U40" t="n">
-        <v>675.0071030383447</v>
+        <v>814.0208188023719</v>
       </c>
       <c r="V40" t="n">
-        <v>420.3226148324578</v>
+        <v>559.336330596485</v>
       </c>
       <c r="W40" t="n">
-        <v>130.9054447954972</v>
+        <v>559.336330596485</v>
       </c>
       <c r="X40" t="n">
-        <v>130.9054447954972</v>
+        <v>559.336330596485</v>
       </c>
       <c r="Y40" t="n">
-        <v>130.9054447954972</v>
+        <v>559.336330596485</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155904</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805485</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822478</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823788</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7487,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571611</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>953.6472828615134</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M42" t="n">
-        <v>1722.015429253975</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>265.3924131404653</v>
+        <v>846.3978353108171</v>
       </c>
       <c r="C43" t="n">
-        <v>265.3924131404653</v>
+        <v>677.4616523829102</v>
       </c>
       <c r="D43" t="n">
-        <v>265.3924131404653</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E43" t="n">
-        <v>265.3924131404653</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F43" t="n">
-        <v>265.3924131404653</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028589</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7585,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557903</v>
+        <v>1448.758889369034</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557903</v>
+        <v>1248.838879284587</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557903</v>
+        <v>1248.838879284587</v>
       </c>
       <c r="U43" t="n">
-        <v>1258.27620142486</v>
+        <v>1248.838879284587</v>
       </c>
       <c r="V43" t="n">
-        <v>1003.591713218973</v>
+        <v>1248.838879284587</v>
       </c>
       <c r="W43" t="n">
-        <v>714.1745431820127</v>
+        <v>1248.838879284587</v>
       </c>
       <c r="X43" t="n">
-        <v>486.1849922839954</v>
+        <v>1248.838879284587</v>
       </c>
       <c r="Y43" t="n">
-        <v>265.3924131404653</v>
+        <v>1028.046300141057</v>
       </c>
     </row>
     <row r="44">
@@ -7622,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155904</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805485</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822478</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823788</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7661,37 +7663,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7722,25 +7724,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>412.6079778147083</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>659.3731057211725</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>966.6932390011342</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1771.104817265285</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2050.644882483982</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7780,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7822,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1313.886294955175</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>1090.100879744681</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>1090.100879744681</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>318.009670603816</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8055,19 +8057,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627885</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8295,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142012</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8307,7 +8309,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783515</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,13 +8543,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992664</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8766,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>124.340078086323</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8781,16 +8783,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,16 +9005,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>50.62661940943661</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9021,10 +9023,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>29.47535963978235</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9258,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>96.03744927814688</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9720,7 +9722,7 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>73.53204524669985</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9732,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>73.53204524669957</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9954,16 +9956,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>73.53204524669934</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9975,7 +9977,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10191,28 +10193,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>87.16935584025435</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>73.53204524669957</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720721</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10428,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>73.5320452466994</v>
+        <v>73.53204524670141</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10449,7 +10451,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10665,16 +10667,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>73.53204524669934</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>288.4091825776764</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10686,7 +10688,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10826,7 +10828,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504513</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10902,10 +10904,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>277.6717966208073</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10917,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>73.64859338270537</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11142,10 +11144,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>32.78140656352338</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11157,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11312,7 +11314,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714825</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11385,19 +11387,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>73.53204524669957</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23425,7 +23427,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>44.2783933089179</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23482,7 +23484,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>44.278393308918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23671,7 +23673,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>77.06777566241342</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,7 +23706,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>189.3952778808841</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>117.2104813490949</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>82.98990566424405</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,22 +24126,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>74.14557958198188</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24178,22 +24180,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>160.1449116337598</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24409,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>121.0596245741542</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24607,16 +24609,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>10.93001849479367</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24652,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>75.26883114644326</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,13 +24663,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24856,7 +24858,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U31" t="n">
-        <v>104.0705886346538</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25075,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -25120,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>130.3987588013465</v>
+        <v>146.480510380079</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25324,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>150.9949886098146</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>14.14775521075219</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25369,13 +25371,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25546,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25567,7 +25569,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>77.06777566241277</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>137.6235786063876</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25609,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25783,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25801,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>60.30854502681355</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>48.00368395686527</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26071,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>14.74113413690279</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>881650.7453192546</v>
+        <v>881650.7453192547</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>881650.7453192545</v>
+        <v>881650.7453192546</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>881650.7453192547</v>
+        <v>881650.7453192546</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>881650.7453192546</v>
+        <v>881650.7453192545</v>
       </c>
     </row>
     <row r="13">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="C2" t="n">
         <v>533677.1504117843</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117848</v>
+        <v>533677.1504117845</v>
       </c>
       <c r="E2" t="n">
-        <v>508337.7776590214</v>
+        <v>508337.7776590217</v>
       </c>
       <c r="F2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="G2" t="n">
         <v>508337.7776590216</v>
       </c>
       <c r="H2" t="n">
-        <v>508337.7776590214</v>
+        <v>508337.7776590217</v>
       </c>
       <c r="I2" t="n">
         <v>508337.7776590216</v>
       </c>
       <c r="J2" t="n">
+        <v>508337.7776590218</v>
+      </c>
+      <c r="K2" t="n">
         <v>508337.7776590216</v>
       </c>
-      <c r="K2" t="n">
-        <v>508337.7776590214</v>
-      </c>
       <c r="L2" t="n">
+        <v>508337.7776590218</v>
+      </c>
+      <c r="M2" t="n">
+        <v>508337.7776590218</v>
+      </c>
+      <c r="N2" t="n">
+        <v>508337.7776590218</v>
+      </c>
+      <c r="O2" t="n">
         <v>508337.7776590216</v>
       </c>
-      <c r="M2" t="n">
-        <v>508337.7776590214</v>
-      </c>
-      <c r="N2" t="n">
-        <v>508337.7776590217</v>
-      </c>
-      <c r="O2" t="n">
-        <v>508337.7776590214</v>
-      </c>
       <c r="P2" t="n">
-        <v>508337.7776590214</v>
+        <v>508337.7776590216</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26439,19 +26441,19 @@
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="L4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687085</v>
       </c>
       <c r="M4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="N4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="O4" t="n">
         <v>22174.60758687071</v>
@@ -26473,43 +26475,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
+        <v>91987.32594871659</v>
+      </c>
+      <c r="M5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="N5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="O5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="P5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="M5" t="n">
-        <v>91987.32594871667</v>
-      </c>
-      <c r="N5" t="n">
-        <v>91987.32594871667</v>
-      </c>
-      <c r="O5" t="n">
-        <v>91987.32594871667</v>
-      </c>
-      <c r="P5" t="n">
-        <v>91987.32594871667</v>
       </c>
     </row>
     <row r="6">
@@ -26525,10 +26527,10 @@
         <v>285185.2045618504</v>
       </c>
       <c r="D6" t="n">
-        <v>285185.2045618509</v>
+        <v>285185.2045618507</v>
       </c>
       <c r="E6" t="n">
-        <v>-130984.1923534618</v>
+        <v>-130984.1923534617</v>
       </c>
       <c r="F6" t="n">
         <v>394175.8441234343</v>
@@ -26537,31 +26539,31 @@
         <v>394175.8441234343</v>
       </c>
       <c r="H6" t="n">
-        <v>394175.8441234341</v>
+        <v>394175.8441234343</v>
       </c>
       <c r="I6" t="n">
         <v>394175.8441234342</v>
       </c>
       <c r="J6" t="n">
-        <v>217752.6249308411</v>
+        <v>217752.6249308415</v>
       </c>
       <c r="K6" t="n">
-        <v>394175.844123434</v>
+        <v>394175.8441234343</v>
       </c>
       <c r="L6" t="n">
-        <v>394175.8441234344</v>
+        <v>394175.8441234346</v>
       </c>
       <c r="M6" t="n">
-        <v>259374.8288895969</v>
+        <v>259374.8288895973</v>
       </c>
       <c r="N6" t="n">
+        <v>394175.8441234345</v>
+      </c>
+      <c r="O6" t="n">
         <v>394175.8441234343</v>
       </c>
-      <c r="O6" t="n">
-        <v>394175.844123434</v>
-      </c>
       <c r="P6" t="n">
-        <v>394175.844123434</v>
+        <v>394175.8441234343</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
@@ -26744,40 +26746,40 @@
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="H3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="I3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="H3" t="n">
+      <c r="J3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="I3" t="n">
-        <v>830.3824054541005</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541005</v>
-      </c>
       <c r="K3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26811,25 +26813,25 @@
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="P4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
     </row>
   </sheetData>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,22 +27378,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>77.88330133634724</v>
       </c>
       <c r="F2" t="n">
-        <v>56.97491248506037</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27427,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -27439,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27546,19 +27548,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>145.7058982971924</v>
+        <v>151.3141943242037</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,28 +27584,28 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27673,16 +27675,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>242.0239177154456</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>235.4618279199265</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>75.95753524357737</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27795,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,7 +27824,7 @@
         <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>4.855580181983527</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27850,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27904,19 +27906,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>320.2961108691647</v>
       </c>
       <c r="W8" t="n">
-        <v>240.6800661475173</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.882105749397027</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,13 +28019,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28074,10 +28076,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>10.30532391843681</v>
       </c>
     </row>
     <row r="11">
@@ -29758,7 +29760,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>2.955857780762017e-12</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32224,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,10 +32700,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,37 +32712,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32816,7 +32818,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,10 +32937,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,37 +32949,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,31 +33022,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33053,7 +33055,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T32" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P34" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336902</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T35" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P37" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336902</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P40" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336902</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,10 +34359,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34369,37 +34371,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,31 +34444,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34475,7 +34477,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>365.284463230715</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35015,7 +35017,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35027,7 +35029,7 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735647</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>296.2227415328939</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35410,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>274.9155166742622</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,16 +35725,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>201.2020579973758</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
         <v>333.1945733980128</v>
@@ -35741,10 +35743,10 @@
         <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>117.4883924248565</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,16 +35971,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36039,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>137.9476282330536</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36276,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>322.7897502027242</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>280.6254601782243</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>224.1074838346387</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36771,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879393</v>
+        <v>237.7447944281936</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>280.6254601782243</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951474</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>224.1074838346387</v>
+        <v>224.1074838346405</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415662</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411083</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315245</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187479</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951474</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>224.1074838346387</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>537.6668875337006</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411083</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315245</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187479</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.691066710908</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594837</v>
+        <v>526.9295015768315</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>161.6616261677796</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556556</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>282.0391115195478</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
         <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>280.6254601782243</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38193,7 +38195,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_3_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1960354.521007353</v>
+        <v>1965293.783856384</v>
       </c>
     </row>
     <row r="7">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>2.299526941741447</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>163.8950372953901</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -819,28 +819,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>59.66385641544559</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>9.275596830496628</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,16 +861,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,13 +904,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>15.82593128898536</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,22 +943,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>163.9694038001639</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>9.275596830496854</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,16 +1098,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>223.1498336210773</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>382.8908255841852</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>108.8074282022286</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>18.01892853764505</v>
+        <v>30.54110646053103</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,13 +1423,13 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701364</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T12" t="n">
         <v>192.9654699154601</v>
@@ -1533,22 +1533,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>11.596108746336</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>115.5269768002183</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,10 +1663,10 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498026</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701364</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T15" t="n">
         <v>192.9654699154601</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1779,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>12.49082363978178</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>143.3158222056571</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206845</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498026</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2007,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>115.526976800223</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>26.12759070766523</v>
       </c>
     </row>
     <row r="20">
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>411.964516789693</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274225</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T21" t="n">
         <v>192.9654699154601</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>118.9759016516919</v>
       </c>
       <c r="U22" t="n">
-        <v>203.8435192151921</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2481,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>115.5269768002182</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>203.8435192151921</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2572,10 +2572,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113175</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T27" t="n">
         <v>192.9654699154601</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>145.9240357115923</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>210.9685212521345</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T30" t="n">
         <v>192.9654699154601</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>115.526976800218</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>115.5269768002185</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3031,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710089</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T33" t="n">
         <v>192.9654699154601</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>115.5269768002183</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>224.895256723157</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T36" t="n">
         <v>192.9654699154601</v>
@@ -3432,16 +3432,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>170.5809693952299</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>168.3058892062855</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648052002</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T39" t="n">
         <v>192.9654699154601</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002225</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
@@ -3723,7 +3723,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>204.129165153206</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T42" t="n">
         <v>192.9654699154601</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>203.8435192151922</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>82.35845141792662</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>139.1537278750042</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2476.569858826099</v>
+        <v>1254.177966138804</v>
       </c>
       <c r="C2" t="n">
-        <v>2107.607341885688</v>
+        <v>885.2154491983927</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>885.2154491983927</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>885.2154491983927</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>474.2295444087851</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>56.26573630697197</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>56.26573630697197</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2476.569858826099</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2476.569858826099</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2476.569858826099</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2476.569858826099</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>2476.569858826099</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X2" t="n">
-        <v>2476.569858826099</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="Y2" t="n">
-        <v>2476.569858826099</v>
+        <v>1640.777806202926</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4418,16 +4418,16 @@
         <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="C4" t="n">
-        <v>667.8624625746712</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="D4" t="n">
-        <v>517.7458231623355</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>108.9687959810045</v>
       </c>
     </row>
     <row r="5">
@@ -4543,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>478.8522906713811</v>
+        <v>898.8784838925785</v>
       </c>
       <c r="C5" t="n">
-        <v>478.8522906713811</v>
+        <v>898.8784838925785</v>
       </c>
       <c r="D5" t="n">
-        <v>478.8522906713811</v>
+        <v>898.8784838925785</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4579,40 +4579,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2531.523430614016</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2312.888763586079</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U5" t="n">
-        <v>2312.888763586079</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V5" t="n">
-        <v>1981.825876242509</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>1629.057220972395</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X5" t="n">
-        <v>1255.591462711315</v>
+        <v>1289.01781586839</v>
       </c>
       <c r="Y5" t="n">
-        <v>865.4521307355029</v>
+        <v>898.8784838925785</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810047</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810047</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810047</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810047</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810047</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810047</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810047</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942403</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>336.276983312403</v>
       </c>
       <c r="T7" t="n">
-        <v>502.7251118619119</v>
+        <v>108.9687959810047</v>
       </c>
       <c r="U7" t="n">
-        <v>502.7251118619119</v>
+        <v>108.9687959810047</v>
       </c>
       <c r="V7" t="n">
-        <v>502.7251118619119</v>
+        <v>108.9687959810047</v>
       </c>
       <c r="W7" t="n">
-        <v>502.7251118619119</v>
+        <v>108.9687959810047</v>
       </c>
       <c r="X7" t="n">
-        <v>274.7355609638946</v>
+        <v>108.9687959810047</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810047</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1567.641263708175</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1198.678746767763</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>840.413048161013</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>454.6247955627687</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
         <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
         <v>881.2824271224079</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2587.242597884658</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018223</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="W8" t="n">
-        <v>2344.380435748109</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="X8" t="n">
-        <v>2344.380435748109</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>1954.241103772297</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4859,67 +4859,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572649</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>517.0636002298169</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C10" t="n">
-        <v>517.0636002298169</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="D10" t="n">
-        <v>366.9469608174811</v>
+        <v>548.5954256477204</v>
       </c>
       <c r="E10" t="n">
-        <v>219.033867235088</v>
+        <v>400.6823320653273</v>
       </c>
       <c r="F10" t="n">
-        <v>72.14391973717764</v>
+        <v>253.7923845674169</v>
       </c>
       <c r="G10" t="n">
-        <v>72.14391973717764</v>
+        <v>84.79258430574933</v>
       </c>
       <c r="H10" t="n">
-        <v>72.14391973717764</v>
+        <v>84.79258430574933</v>
       </c>
       <c r="I10" t="n">
-        <v>72.14391973717764</v>
+        <v>84.79258430574933</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600566</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600566</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600566</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600566</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600566</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600566</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600566</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600566</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600566</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="11">
@@ -5032,49 +5032,49 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823788</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514089</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
         <v>3931.294970121731</v>
@@ -5117,31 +5117,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571611</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636254</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028589</v>
+        <v>665.6859735286137</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028589</v>
+        <v>665.6859735286137</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028589</v>
+        <v>653.9727323706985</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028589</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028589</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028589</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011507</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952638</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="W13" t="n">
-        <v>325.2066423583032</v>
+        <v>665.6859735286137</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028589</v>
+        <v>665.6859735286137</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028589</v>
+        <v>665.6859735286137</v>
       </c>
     </row>
     <row r="14">
@@ -5269,7 +5269,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5278,19 +5278,19 @@
         <v>97.21709146028589</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643324</v>
@@ -5311,7 +5311,7 @@
         <v>4515.972600141869</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
         <v>3931.294970121731</v>
@@ -5357,28 +5357,28 @@
         <v>97.21709146028589</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256436</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>485.5200852635867</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L15" t="n">
-        <v>1099.417155020476</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M15" t="n">
-        <v>1406.737288300437</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N15" t="n">
-        <v>1736.59991596447</v>
+        <v>1925.508393158044</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183167</v>
+        <v>2205.048458376741</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2410.070939158951</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028589</v>
+        <v>260.2520934878797</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028589</v>
+        <v>260.2520934878797</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028589</v>
+        <v>260.2520934878797</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028589</v>
+        <v>260.2520934878797</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028589</v>
+        <v>260.2520934878797</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028589</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028589</v>
@@ -5442,46 +5442,46 @@
         <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799415</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471244</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974672</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980069</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585752</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557908</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557908</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.99626047346</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.210845262966</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765243</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V16" t="n">
-        <v>531.3977182706375</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W16" t="n">
-        <v>241.9805482336769</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028589</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028589</v>
+        <v>441.9005583181194</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
@@ -5515,19 +5515,19 @@
         <v>97.21709146028589</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514089</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643324</v>
@@ -5548,19 +5548,19 @@
         <v>4515.972600141869</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5597,10 +5597,10 @@
         <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571611</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636253</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M18" t="n">
         <v>1228.513823643587</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028589</v>
+        <v>415.509052552801</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028589</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028589</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028589</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028589</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028589</v>
@@ -5679,7 +5679,7 @@
         <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
         <v>779.0639759471194</v>
@@ -5694,31 +5694,31 @@
         <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557908</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557908</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011507</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952638</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028589</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028589</v>
+        <v>415.509052552801</v>
       </c>
     </row>
     <row r="20">
@@ -5743,28 +5743,28 @@
         <v>904.3190116155904</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822478</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028589</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643324</v>
@@ -5837,7 +5837,7 @@
         <v>674.4285624571611</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636253</v>
+        <v>921.1936903636254</v>
       </c>
       <c r="M21" t="n">
         <v>1228.513823643587</v>
@@ -5849,10 +5849,10 @@
         <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028589</v>
+        <v>397.7517393246783</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028589</v>
+        <v>397.7517393246783</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028589</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028589</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028589</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028589</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H22" t="n">
         <v>97.21709146028589</v>
@@ -5919,7 +5919,7 @@
         <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.210845262961</v>
+        <v>1378.738592121851</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011507</v>
+        <v>1089.609953335409</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952638</v>
+        <v>1089.609953335409</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>800.1927832984481</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028589</v>
+        <v>800.1927832984481</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028589</v>
+        <v>579.400204154918</v>
       </c>
     </row>
     <row r="23">
@@ -5980,19 +5980,19 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805457</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028589</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823789</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6001,10 +6001,10 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
         <v>4454.632848899127</v>
@@ -6071,10 +6071,10 @@
         <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636254</v>
       </c>
       <c r="M24" t="n">
         <v>1228.513823643587</v>
@@ -6123,10 +6123,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028589</v>
+        <v>213.9110074201023</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028589</v>
+        <v>213.9110074201023</v>
       </c>
       <c r="D25" t="n">
         <v>97.21709146028589</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.210845262961</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011507</v>
+        <v>986.0022165609671</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952638</v>
+        <v>731.3177283550802</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>441.9005583181196</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028589</v>
+        <v>213.9110074201023</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028589</v>
+        <v>213.9110074201023</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6214,40 +6214,40 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6259,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6305,13 +6305,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
         <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M27" t="n">
         <v>1228.513823643587</v>
@@ -6323,10 +6323,10 @@
         <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1351.518254687608</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.210845262961</v>
+        <v>1127.732839477114</v>
       </c>
       <c r="U28" t="n">
-        <v>862.1113288466635</v>
+        <v>1127.732839477114</v>
       </c>
       <c r="V28" t="n">
-        <v>607.4268406407766</v>
+        <v>873.0483512712267</v>
       </c>
       <c r="W28" t="n">
-        <v>318.0096706038159</v>
+        <v>583.631181234266</v>
       </c>
       <c r="X28" t="n">
-        <v>318.0096706038159</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>355.6416303362487</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823789</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P29" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6530,40 +6530,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>462.7283310300492</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636251</v>
+        <v>709.4934589365134</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1016.813592216475</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.37645130762</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526317</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>213.9110074201021</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>213.9110074201021</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>213.9110074201021</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>213.9110074201021</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557903</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
-        <v>1275.130855347409</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>986.0022165609669</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>731.31772835508</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>441.9005583181194</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>213.9110074201021</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>213.9110074201021</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
         <v>488.1932370805469</v>
@@ -6697,55 +6697,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="33">
@@ -6767,25 +6767,25 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K33" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636254</v>
       </c>
       <c r="M33" t="n">
         <v>1228.513823643587</v>
@@ -6834,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585751</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557907</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557907</v>
       </c>
       <c r="S34" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557907</v>
       </c>
       <c r="T34" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557907</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011506</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952637</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905256</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P35" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7004,16 +7004,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126483</v>
@@ -7022,7 +7022,7 @@
         <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M36" t="n">
         <v>1228.513823643587</v>
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>542.438140992646</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C37" t="n">
-        <v>542.438140992646</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D37" t="n">
-        <v>542.438140992646</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E37" t="n">
-        <v>394.5250474102529</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F37" t="n">
-        <v>247.6350999123426</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G37" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T37" t="n">
-        <v>1187.921157035281</v>
+        <v>1326.612261067772</v>
       </c>
       <c r="U37" t="n">
-        <v>1187.921157035281</v>
+        <v>1037.48362228133</v>
       </c>
       <c r="V37" t="n">
-        <v>933.2366688293938</v>
+        <v>782.7991340754431</v>
       </c>
       <c r="W37" t="n">
-        <v>763.2307201361762</v>
+        <v>493.3819640384826</v>
       </c>
       <c r="X37" t="n">
-        <v>763.2307201361762</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="Y37" t="n">
-        <v>542.438140992646</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="38">
@@ -7165,40 +7165,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823768</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514066</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7241,16 +7241,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126483</v>
@@ -7259,7 +7259,7 @@
         <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M39" t="n">
         <v>1228.513823643587</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241958</v>
@@ -7338,46 +7338,46 @@
         <v>259.7851881688073</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N40" t="n">
-        <v>1049.608084974672</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980069</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585751</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557907</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557907</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011507</v>
+        <v>786.0822064765193</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952638</v>
+        <v>531.3977182706325</v>
       </c>
       <c r="W40" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
@@ -7490,28 +7490,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277034</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341675</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M42" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H43" t="n">
         <v>97.21709146028584</v>
@@ -7569,16 +7569,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.210845262961</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011506</v>
+        <v>874.9271131227927</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952637</v>
+        <v>620.2426249169058</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>330.8254548799452</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
     </row>
     <row r="44">
@@ -7627,49 +7627,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7715,13 +7715,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
@@ -7730,19 +7730,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2317.834075963124</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,28 +7824,28 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X46" t="n">
         <v>97.21709146028584</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8066,7 +8066,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>422.286579409329</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747119</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747115</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>409.7003683229574</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>277.6717966208054</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8935,7 +8935,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928322</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>199.7396287231143</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>116.9087390531959</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445213</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.7164198729829</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9260,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>277.6717966208057</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9497,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776744</v>
+        <v>277.6717966208054</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9734,7 +9734,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208061</v>
+        <v>277.6717966208054</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9886,7 +9886,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119818</v>
       </c>
       <c r="O26" t="n">
         <v>380.8001812627454</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776749</v>
+        <v>277.6717966208054</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298008</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10193,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>50.62661940943531</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10205,16 +10205,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208061</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720721</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776741</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298008</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776741</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720718</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208061</v>
+        <v>277.6717966208054</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928303</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11138,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>423.3376789165113</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>277.6717966208054</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208061</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23421,22 +23421,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>137.0193642718764</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,10 +23466,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>82.393833183385</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23667,10 +23667,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>154.0027448235958</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23703,7 +23703,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>82.39383318338008</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23895,7 +23895,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23940,7 +23940,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>82.39383318338027</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>192.4570626444296</v>
       </c>
     </row>
     <row r="20">
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24144,7 +24144,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24177,25 +24177,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>102.5716594066973</v>
       </c>
       <c r="U22" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24369,7 +24369,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>33.08849621799412</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24414,13 +24414,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24612,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24621,7 +24621,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,13 +24651,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>51.99677427201098</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>75.26883114644289</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24849,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>29.89407122271322</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24888,7 +24888,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338477</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25125,13 +25125,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>82.393833183385</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>61.34209567542035</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25320,16 +25320,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>50.96659166315939</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>118.2171091303055</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25599,7 +25599,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338072</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>82.39383318338497</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>82.39383318338511</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>143.3512039711105</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26076,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>82.39383318338503</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>881650.7453192547</v>
+        <v>881650.7453192545</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>881650.7453192546</v>
+        <v>881650.7453192547</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>881650.7453192546</v>
+        <v>881650.7453192547</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>881650.7453192545</v>
+        <v>881650.7453192547</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>881650.7453192547</v>
+        <v>881650.7453192546</v>
       </c>
     </row>
     <row r="15">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117841</v>
       </c>
       <c r="C2" t="n">
         <v>533677.1504117844</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117844</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="E2" t="n">
         <v>508337.7776590217</v>
@@ -26331,13 +26331,13 @@
         <v>508337.7776590217</v>
       </c>
       <c r="H2" t="n">
-        <v>508337.7776590216</v>
+        <v>508337.7776590217</v>
       </c>
       <c r="I2" t="n">
         <v>508337.7776590216</v>
       </c>
       <c r="J2" t="n">
-        <v>508337.7776590218</v>
+        <v>508337.7776590216</v>
       </c>
       <c r="K2" t="n">
         <v>508337.7776590217</v>
@@ -26349,13 +26349,13 @@
         <v>508337.7776590217</v>
       </c>
       <c r="N2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590215</v>
       </c>
       <c r="O2" t="n">
         <v>508337.7776590216</v>
       </c>
       <c r="P2" t="n">
-        <v>508337.7776590217</v>
+        <v>508337.7776590216</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.150924617832061e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,40 +26426,40 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.6075868707</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="G4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687064</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="I4" t="n">
+        <v>22174.6075868707</v>
+      </c>
+      <c r="J4" t="n">
+        <v>22174.60758687069</v>
+      </c>
+      <c r="K4" t="n">
+        <v>22174.60758687069</v>
+      </c>
+      <c r="L4" t="n">
         <v>22174.60758687071</v>
       </c>
-      <c r="J4" t="n">
-        <v>22174.6075868707</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
+        <v>22174.60758687069</v>
+      </c>
+      <c r="N4" t="n">
+        <v>22174.60758687069</v>
+      </c>
+      <c r="O4" t="n">
+        <v>22174.60758687069</v>
+      </c>
+      <c r="P4" t="n">
         <v>22174.60758687071</v>
-      </c>
-      <c r="L4" t="n">
-        <v>22174.6075868707</v>
-      </c>
-      <c r="M4" t="n">
-        <v>22174.60758687071</v>
-      </c>
-      <c r="N4" t="n">
-        <v>22174.60758687071</v>
-      </c>
-      <c r="O4" t="n">
-        <v>22174.6075868707</v>
-      </c>
-      <c r="P4" t="n">
-        <v>22174.6075868707</v>
       </c>
     </row>
     <row r="5">
@@ -26472,13 +26472,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
+        <v>82859.07806340947</v>
+      </c>
+      <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
-      <c r="D5" t="n">
-        <v>82859.07806340948</v>
-      </c>
       <c r="E5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871667</v>
@@ -26496,22 +26496,22 @@
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
+        <v>91987.32594871667</v>
+      </c>
+      <c r="M5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="M5" t="n">
-        <v>91987.32594871665</v>
-      </c>
       <c r="N5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-304782.674652694</v>
+        <v>-304782.6746526942</v>
       </c>
       <c r="C6" t="n">
         <v>285185.2045618506</v>
       </c>
       <c r="D6" t="n">
-        <v>285185.2045618506</v>
+        <v>285185.2045618504</v>
       </c>
       <c r="E6" t="n">
-        <v>-131958.7836131837</v>
+        <v>-131081.6514794343</v>
       </c>
       <c r="F6" t="n">
-        <v>393201.2528637125</v>
+        <v>394078.384997462</v>
       </c>
       <c r="G6" t="n">
-        <v>393201.2528637126</v>
+        <v>394078.3849974621</v>
       </c>
       <c r="H6" t="n">
-        <v>393201.2528637127</v>
+        <v>394078.3849974619</v>
       </c>
       <c r="I6" t="n">
-        <v>393201.2528637126</v>
+        <v>394078.384997462</v>
       </c>
       <c r="J6" t="n">
-        <v>216778.0336711199</v>
+        <v>217655.1658048692</v>
       </c>
       <c r="K6" t="n">
-        <v>393201.2528637126</v>
+        <v>394078.3849974622</v>
       </c>
       <c r="L6" t="n">
-        <v>393201.2528637127</v>
+        <v>394078.384997462</v>
       </c>
       <c r="M6" t="n">
-        <v>258400.2376298754</v>
+        <v>259277.3697636251</v>
       </c>
       <c r="N6" t="n">
-        <v>393201.2528637127</v>
+        <v>394078.384997462</v>
       </c>
       <c r="O6" t="n">
-        <v>393201.2528637126</v>
+        <v>394078.3849974621</v>
       </c>
       <c r="P6" t="n">
-        <v>393201.2528637127</v>
+        <v>394078.3849974623</v>
       </c>
     </row>
   </sheetData>
@@ -26737,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="F3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="G3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="H3" t="n">
         <v>830.3824054541006</v>
       </c>
-      <c r="F3" t="n">
+      <c r="I3" t="n">
         <v>830.3824054541006</v>
       </c>
-      <c r="G3" t="n">
-        <v>830.3824054541005</v>
-      </c>
-      <c r="H3" t="n">
-        <v>830.3824054541005</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541004</v>
-      </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26792,13 +26792,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="D4" t="n">
         <v>674.2872727545556</v>
       </c>
-      <c r="D4" t="n">
-        <v>674.2872727545557</v>
-      </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253574</v>
@@ -26819,13 +26819,13 @@
         <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="M4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499018</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>149.6317893031198</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,19 +27429,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>10.52067551358144</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27539,28 +27539,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>107.5829646831822</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>125.6900249618416</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,16 +27581,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27624,13 +27624,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>366.1044387832764</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27663,22 +27663,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>10.44630900880759</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>125.6900249618414</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,16 +27818,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>1.885271837006968</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>23.98522015752627</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,13 +27900,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>65.60828460674293</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27915,7 +27915,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>27.18103065089192</v>
+        <v>14.65885272800598</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28386,7 +28386,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28514,7 +28514,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>4.901797486430345e-12</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -28569,7 +28569,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-8.463989355239118e-13</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28766,7 +28766,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>5.090328158985358e-12</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -29751,7 +29751,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>-6.190252600806797e-13</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -29948,7 +29948,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>4.336205468765305e-12</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -30273,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>-7.042903883718917e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30416,7 +30416,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>4.619001477597825e-12</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31518,46 +31518,46 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31694,28 +31694,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
         <v>34.18755300444946</v>
@@ -31761,40 +31761,40 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304442</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565521</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
@@ -31846,19 +31846,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458551</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710957</v>
@@ -31867,13 +31867,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361493</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298632</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
         <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
         <v>34.18755300444946</v>
@@ -31998,40 +31998,40 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304442</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565521</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,7 +32074,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
@@ -32083,19 +32083,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458551</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710957</v>
@@ -32104,13 +32104,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361493</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298632</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
         <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
         <v>34.18755300444946</v>
@@ -32247,13 +32247,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647497</v>
@@ -32268,7 +32268,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32323,7 +32323,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
         <v>464.5362854813463</v>
@@ -32344,7 +32344,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32384,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
         <v>45.03122946298631</v>
@@ -32396,10 +32396,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
         <v>234.725964217132</v>
@@ -32408,7 +32408,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32420,13 +32420,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32472,16 +32472,16 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927188</v>
@@ -32490,19 +32490,19 @@
         <v>562.4526372540888</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U20" t="n">
         <v>0.2670576580354894</v>
@@ -32548,7 +32548,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
@@ -32557,19 +32557,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M21" t="n">
         <v>452.5584109724848</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710957</v>
@@ -32578,13 +32578,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32642,19 +32642,19 @@
         <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q22" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336902</v>
@@ -32663,7 +32663,7 @@
         <v>6.398028369892248</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
         <v>34.18755300444946</v>
@@ -32709,40 +32709,40 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,7 +32785,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
@@ -32794,19 +32794,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q24" t="n">
         <v>227.9948068710957</v>
@@ -32815,13 +32815,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
         <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q25" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H26" t="n">
         <v>34.18755300444946</v>
@@ -32946,40 +32946,40 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33022,7 +33022,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
@@ -33031,19 +33031,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q27" t="n">
         <v>227.9948068710957</v>
@@ -33052,13 +33052,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M28" t="n">
         <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H29" t="n">
         <v>34.18755300444946</v>
@@ -33183,40 +33183,40 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33259,7 +33259,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
@@ -33268,19 +33268,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q30" t="n">
         <v>227.9948068710957</v>
@@ -33289,13 +33289,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M31" t="n">
         <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H32" t="n">
         <v>34.18755300444946</v>
@@ -33420,40 +33420,40 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T32" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33496,7 +33496,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
@@ -33505,19 +33505,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q33" t="n">
         <v>227.9948068710957</v>
@@ -33526,13 +33526,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M34" t="n">
         <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P34" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H35" t="n">
         <v>34.18755300444946</v>
@@ -33657,40 +33657,40 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T35" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33733,7 +33733,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
@@ -33742,19 +33742,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q36" t="n">
         <v>227.9948068710957</v>
@@ -33763,13 +33763,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M37" t="n">
         <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P37" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q37" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H38" t="n">
         <v>34.18755300444946</v>
@@ -33894,40 +33894,40 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T38" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33970,7 +33970,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
@@ -33979,19 +33979,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q39" t="n">
         <v>227.9948068710957</v>
@@ -34000,13 +34000,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M40" t="n">
         <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P40" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H41" t="n">
         <v>34.18755300444946</v>
@@ -34131,40 +34131,40 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T41" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34207,7 +34207,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
@@ -34216,19 +34216,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q42" t="n">
         <v>227.9948068710957</v>
@@ -34237,13 +34237,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M43" t="n">
         <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P43" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q43" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,10 +34535,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34786,19 +34786,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>486.0228424856228</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,10 +35333,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35345,10 +35345,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504665</v>
+        <v>720.1247453734238</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980131</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>484.7652115523302</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686869</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
@@ -35576,19 +35576,19 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>350.3150673110537</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594837</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504665</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>525.556183571462</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507422</v>
+        <v>204.92177183827</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799335</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
@@ -35895,19 +35895,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005179</v>
@@ -35974,19 +35974,19 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>484.7652115523304</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686868</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
@@ -36050,7 +36050,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056037</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187988</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,16 +36120,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081121</v>
@@ -36141,10 +36141,10 @@
         <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,10 +36205,10 @@
         <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980131</v>
@@ -36217,13 +36217,13 @@
         <v>282.3637022411083</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091992</v>
+        <v>484.7652115523302</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209233</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686869</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
@@ -36290,16 +36290,16 @@
         <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187479</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523309</v>
+        <v>484.7652115523302</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686869</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
@@ -36524,19 +36524,19 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081097</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091996</v>
+        <v>484.7652115523302</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686869</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
@@ -36761,19 +36761,19 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349582</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>201.2020579973747</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523309</v>
+        <v>525.556183571462</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507422</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
@@ -36998,19 +36998,19 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187477</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975091989</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
@@ -37235,19 +37235,19 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118052</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187477</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349582</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975091989</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
@@ -37472,19 +37472,19 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187477</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415061</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523309</v>
+        <v>484.7652115523302</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686869</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
@@ -37709,19 +37709,19 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056083</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M41" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221098</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N42" t="n">
-        <v>756.5322523145243</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315248</v>
+        <v>484.7652115523302</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686869</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
@@ -37946,19 +37946,19 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,28 +38098,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523309</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
